--- a/projects/m0_midrise_lhs.xlsx
+++ b/projects/m0_midrise_lhs.xlsx
@@ -6910,7 +6910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -7347,9 +7347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z126"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9032,7 +9032,7 @@
     </row>
     <row r="72" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" s="37" t="s">
         <v>859</v>
